--- a/Test/MultiPSO/Explore100Exploit200/ALLCONError_125.xlsx
+++ b/Test/MultiPSO/Explore100Exploit200/ALLCONError_125.xlsx
@@ -423,34 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.003295583688691494</v>
+        <v>0.003851630660962921</v>
       </c>
       <c r="B1" t="n">
-        <v>0.0008413308222565313</v>
+        <v>0.00178483443479811</v>
       </c>
       <c r="C1" t="n">
-        <v>0.001566371897191466</v>
+        <v>0.00137807635037682</v>
       </c>
       <c r="D1" t="n">
-        <v>0.002372829274207949</v>
+        <v>0.0016712834197709</v>
       </c>
       <c r="E1" t="n">
-        <v>0.003216307190900421</v>
+        <v>0.005875297411762269</v>
       </c>
       <c r="F1" t="n">
-        <v>0.002900901626810531</v>
+        <v>0.001588370121515651</v>
       </c>
       <c r="G1" t="n">
-        <v>0.007137300394532971</v>
+        <v>0.0008158104128894607</v>
       </c>
       <c r="H1" t="n">
-        <v>0.003062232623183515</v>
+        <v>0.0008106447971610735</v>
       </c>
       <c r="I1" t="n">
-        <v>0.006490204034419214</v>
+        <v>0.006205545470238038</v>
       </c>
       <c r="J1" t="n">
-        <v>0.00824287177373003</v>
+        <v>0.003737881440297353</v>
       </c>
     </row>
   </sheetData>
